--- a/SuppXLS/Scen_SYS_ZeroCO2_CAP21-A25E65-LA.xlsx
+++ b/SuppXLS/Scen_SYS_ZeroCO2_CAP21-A25E65-LA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F00FDA-3E8E-49F3-A0B1-B4CA5CD98D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CB6426-4D64-4E3F-A47E-3C2C584E7183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1903,7 +1903,7 @@
   <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2096,7 +2096,7 @@
         <v>27699</v>
       </c>
       <c r="M7" s="16">
-        <v>12482</v>
+        <v>14093</v>
       </c>
       <c r="N7" s="16">
         <v>0</v>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="J27" s="8">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
-        <v>12482</v>
+        <v>14093</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="J27" s="8">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
-        <v>12482</v>
+        <v>14093</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
